--- a/1/results1.xlsx
+++ b/1/results1.xlsx
@@ -809,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1650,6 +1650,13 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>gamma: 2.0999999999999996</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/1/results1.xlsx
+++ b/1/results1.xlsx
@@ -35,326 +35,326 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002C86C9"/>
-        <bgColor rgb="002C86C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D7DBE6"/>
-        <bgColor rgb="00D7DBE6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D7CE51"/>
-        <bgColor rgb="00D7CE51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DCE0EA"/>
-        <bgColor rgb="00DCE0EA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0D5E2"/>
-        <bgColor rgb="00D0D5E2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B83251"/>
-        <bgColor rgb="00B83251"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0058AB74"/>
-        <bgColor rgb="0058AB74"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BB2950"/>
-        <bgColor rgb="00BB2950"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C4860B"/>
-        <bgColor rgb="00C4860B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A31640"/>
-        <bgColor rgb="00A31640"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B6BCC8"/>
-        <bgColor rgb="00B6BCC8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0054996A"/>
-        <bgColor rgb="0054996A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCB40B"/>
-        <bgColor rgb="00BCB40B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BB7D0A"/>
-        <bgColor rgb="00BB7D0A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000B6DA9"/>
-        <bgColor rgb="000B6DA9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B35561"/>
-        <bgColor rgb="00B35561"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C88731"/>
-        <bgColor rgb="00C88731"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D2901E"/>
-        <bgColor rgb="00D2901E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDC229"/>
-        <bgColor rgb="00CDC229"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CC8B07"/>
-        <bgColor rgb="00CC8B07"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D8CF57"/>
-        <bgColor rgb="00D8CF57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000765A0"/>
-        <bgColor rgb="000765A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000E925F"/>
-        <bgColor rgb="000E925F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00419E69"/>
-        <bgColor rgb="00419E69"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0007619B"/>
-        <bgColor rgb="0007619B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00148E5C"/>
-        <bgColor rgb="00148E5C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6CAD5"/>
-        <bgColor rgb="00C6CAD5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004E9767"/>
-        <bgColor rgb="004E9767"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BE800C"/>
-        <bgColor rgb="00BE800C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A82347"/>
-        <bgColor rgb="00A82347"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CACED9"/>
-        <bgColor rgb="00CACED9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000769A5"/>
-        <bgColor rgb="000769A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AA2548"/>
-        <bgColor rgb="00AA2548"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002E80C0"/>
-        <bgColor rgb="002E80C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDC530"/>
-        <bgColor rgb="00CDC530"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C9C047"/>
-        <bgColor rgb="00C9C047"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D69336"/>
-        <bgColor rgb="00D69336"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00479D6B"/>
-        <bgColor rgb="00479D6B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C7CBD7"/>
-        <bgColor rgb="00C7CBD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CC8A08"/>
-        <bgColor rgb="00CC8A08"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B12A4C"/>
-        <bgColor rgb="00B12A4C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001B8E5D"/>
-        <bgColor rgb="001B8E5D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B4324E"/>
-        <bgColor rgb="00B4324E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C3BA0A"/>
-        <bgColor rgb="00C3BA0A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BA7B08"/>
-        <bgColor rgb="00BA7B08"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DADCE7"/>
-        <bgColor rgb="00DADCE7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C55F6C"/>
-        <bgColor rgb="00C55F6C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003B7DBB"/>
-        <bgColor rgb="003B7DBB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DACF4D"/>
-        <bgColor rgb="00DACF4D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CFC429"/>
-        <bgColor rgb="00CFC429"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000869A7"/>
-        <bgColor rgb="000869A7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00139A60"/>
-        <bgColor rgb="00139A60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000567A6"/>
-        <bgColor rgb="000567A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BEC3CF"/>
-        <bgColor rgb="00BEC3CF"/>
+        <fgColor rgb="00247EC4"/>
+        <bgColor rgb="00247EC4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D4D8E3"/>
+        <bgColor rgb="00D4D8E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3C948"/>
+        <bgColor rgb="00D3C948"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9DDE8"/>
+        <bgColor rgb="00D9DDE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCD1DF"/>
+        <bgColor rgb="00CCD1DF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B22A48"/>
+        <bgColor rgb="00B22A48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004EA46B"/>
+        <bgColor rgb="004EA46B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B52246"/>
+        <bgColor rgb="00B52246"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BF7E08"/>
+        <bgColor rgb="00BF7E08"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009C1137"/>
+        <bgColor rgb="009C1137"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0B6C3"/>
+        <bgColor rgb="00B0B6C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004B9160"/>
+        <bgColor rgb="004B9160"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B6AD08"/>
+        <bgColor rgb="00B6AD08"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B57407"/>
+        <bgColor rgb="00B57407"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000863A2"/>
+        <bgColor rgb="000863A2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AC4C58"/>
+        <bgColor rgb="00AC4C58"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C37F29"/>
+        <bgColor rgb="00C37F29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CE8818"/>
+        <bgColor rgb="00CE8818"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C8BD22"/>
+        <bgColor rgb="00C8BD22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C88305"/>
+        <bgColor rgb="00C88305"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5CA4E"/>
+        <bgColor rgb="00D5CA4E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00055C98"/>
+        <bgColor rgb="00055C98"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000A8A55"/>
+        <bgColor rgb="000A8A55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0039965F"/>
+        <bgColor rgb="0039965F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00055793"/>
+        <bgColor rgb="00055793"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000F8552"/>
+        <bgColor rgb="000F8552"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C1C5D1"/>
+        <bgColor rgb="00C1C5D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00448F5D"/>
+        <bgColor rgb="00448F5D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B97709"/>
+        <bgColor rgb="00B97709"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A11C3E"/>
+        <bgColor rgb="00A11C3E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C5CAD6"/>
+        <bgColor rgb="00C5CAD6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00055F9E"/>
+        <bgColor rgb="00055F9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A31E3F"/>
+        <bgColor rgb="00A31E3F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002677BA"/>
+        <bgColor rgb="002677BA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C8BF29"/>
+        <bgColor rgb="00C8BF29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C4BB3F"/>
+        <bgColor rgb="00C4BB3F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D38B2D"/>
+        <bgColor rgb="00D38B2D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003E9562"/>
+        <bgColor rgb="003E9562"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C2C7D3"/>
+        <bgColor rgb="00C2C7D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C88206"/>
+        <bgColor rgb="00C88206"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AA2343"/>
+        <bgColor rgb="00AA2343"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00158553"/>
+        <bgColor rgb="00158553"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AE2A45"/>
+        <bgColor rgb="00AE2A45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDB407"/>
+        <bgColor rgb="00BDB407"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B47206"/>
+        <bgColor rgb="00B47206"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7D9E4"/>
+        <bgColor rgb="00D7D9E4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C05663"/>
+        <bgColor rgb="00C05663"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003274B5"/>
+        <bgColor rgb="003274B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D6CA44"/>
+        <bgColor rgb="00D6CA44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CABF21"/>
+        <bgColor rgb="00CABF21"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00065FA0"/>
+        <bgColor rgb="00065FA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000E9257"/>
+        <bgColor rgb="000E9257"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00045E9E"/>
+        <bgColor rgb="00045E9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B8BDCB"/>
+        <bgColor rgb="00B8BDCB"/>
       </patternFill>
     </fill>
   </fills>
@@ -809,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,25 +849,25 @@
       </c>
       <c r="Z1" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 163
-G 22
-B 64
+          <t xml:space="preserve">R 156
+G 17
+B 55
 </t>
         </is>
       </c>
       <c r="AA1" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 182
-G 188
-B 200
+          <t xml:space="preserve">R 176
+G 182
+B 195
 </t>
         </is>
       </c>
       <c r="AB1" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 84
-G 153
-B 106
+          <t xml:space="preserve">R 75
+G 145
+B 96
 </t>
         </is>
       </c>
@@ -893,25 +893,25 @@
       </c>
       <c r="Z2" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 188
-G 180
-B 11
+          <t xml:space="preserve">R 182
+G 173
+B 8
 </t>
         </is>
       </c>
       <c r="AA2" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 187
-G 125
-B 10
+          <t xml:space="preserve">R 181
+G 116
+B 7
 </t>
         </is>
       </c>
       <c r="AB2" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 11
-G 109
-B 169
+          <t xml:space="preserve">R 8
+G 99
+B 162
 </t>
         </is>
       </c>
@@ -937,25 +937,25 @@
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 179
-G 85
-B 97
+          <t xml:space="preserve">R 172
+G 76
+B 88
 </t>
         </is>
       </c>
       <c r="AA3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 200
-G 135
-B 49
+          <t xml:space="preserve">R 195
+G 127
+B 41
 </t>
         </is>
       </c>
       <c r="AB3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 210
-G 144
-B 30
+          <t xml:space="preserve">R 206
+G 136
+B 24
 </t>
         </is>
       </c>
@@ -1017,73 +1017,73 @@
       </c>
       <c r="W4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 205
-G 194
-B 41
+          <t xml:space="preserve">R 200
+G 189
+B 34
 </t>
         </is>
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 204
-G 139
-B 7
+          <t xml:space="preserve">R 200
+G 131
+B 5
 </t>
         </is>
       </c>
       <c r="Y4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 216
-G 207
-B 87
+          <t xml:space="preserve">R 213
+G 202
+B 78
 </t>
         </is>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 44
-G 134
-B 201
+          <t xml:space="preserve">R 36
+G 126
+B 196
 </t>
         </is>
       </c>
       <c r="AA4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 215
-G 219
-B 230
+          <t xml:space="preserve">R 212
+G 216
+B 227
 </t>
         </is>
       </c>
       <c r="AB4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 215
-G 206
-B 81
+          <t xml:space="preserve">R 211
+G 201
+B 72
 </t>
         </is>
       </c>
       <c r="AC4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 78
-G 151
-B 103
+          <t xml:space="preserve">R 68
+G 143
+B 93
 </t>
         </is>
       </c>
       <c r="AD4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 190
-G 128
-B 12
+          <t xml:space="preserve">R 185
+G 119
+B 9
 </t>
         </is>
       </c>
       <c r="AE4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 168
-G 35
-B 71
+          <t xml:space="preserve">R 161
+G 28
+B 62
 </t>
         </is>
       </c>
@@ -1145,73 +1145,73 @@
       </c>
       <c r="W5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 7
-G 101
-B 160
+          <t xml:space="preserve">R 5
+G 92
+B 152
 </t>
         </is>
       </c>
       <c r="X5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 14
-G 146
+          <t xml:space="preserve">R 10
+G 138
+B 85
+</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 57
+G 150
 B 95
 </t>
         </is>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 65
-G 158
-B 105
-</t>
-        </is>
-      </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 220
-G 224
-B 234
+          <t xml:space="preserve">R 217
+G 221
+B 232
 </t>
         </is>
       </c>
       <c r="AA5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 208
-G 213
-B 226
+          <t xml:space="preserve">R 204
+G 209
+B 223
 </t>
         </is>
       </c>
       <c r="AB5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 184
-G 50
-B 81
+          <t xml:space="preserve">R 178
+G 42
+B 72
 </t>
         </is>
       </c>
       <c r="AC5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 202
-G 206
-B 217
+          <t xml:space="preserve">R 197
+G 202
+B 214
 </t>
         </is>
       </c>
       <c r="AD5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 7
-G 105
-B 165
+          <t xml:space="preserve">R 5
+G 95
+B 158
 </t>
         </is>
       </c>
       <c r="AE5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 170
-G 37
-B 72
+          <t xml:space="preserve">R 163
+G 30
+B 63
 </t>
         </is>
       </c>
@@ -1273,73 +1273,73 @@
       </c>
       <c r="W6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 7
-G 97
-B 155
+          <t xml:space="preserve">R 5
+G 87
+B 147
 </t>
         </is>
       </c>
       <c r="X6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 20
-G 142
-B 92
+          <t xml:space="preserve">R 15
+G 133
+B 82
 </t>
         </is>
       </c>
       <c r="Y6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 198
-G 202
-B 213
+          <t xml:space="preserve">R 193
+G 197
+B 209
 </t>
         </is>
       </c>
       <c r="Z6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 88
-G 171
-B 116
+          <t xml:space="preserve">R 78
+G 164
+B 107
 </t>
         </is>
       </c>
       <c r="AA6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 187
-G 41
-B 80
+          <t xml:space="preserve">R 181
+G 34
+B 70
 </t>
         </is>
       </c>
       <c r="AB6" s="5" t="inlineStr">
         <is>
+          <t xml:space="preserve">R 191
+G 126
+B 8
+</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 38
+G 119
+B 186
+</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 200
+G 191
+B 41
+</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
           <t xml:space="preserve">R 196
-G 134
-B 11
-</t>
-        </is>
-      </c>
-      <c r="AC6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 46
-G 128
-B 192
-</t>
-        </is>
-      </c>
-      <c r="AD6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 205
-G 197
-B 48
-</t>
-        </is>
-      </c>
-      <c r="AE6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 201
-G 192
-B 71
+G 187
+B 63
 </t>
         </is>
       </c>
@@ -1365,25 +1365,25 @@
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 214
-G 147
-B 54
+          <t xml:space="preserve">R 211
+G 139
+B 45
 </t>
         </is>
       </c>
       <c r="AA7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 71
-G 157
-B 107
+          <t xml:space="preserve">R 62
+G 149
+B 98
 </t>
         </is>
       </c>
       <c r="AB7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 199
-G 203
-B 215
+          <t xml:space="preserve">R 194
+G 199
+B 211
 </t>
         </is>
       </c>
@@ -1409,25 +1409,25 @@
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 204
-G 138
-B 8
+          <t xml:space="preserve">R 200
+G 130
+B 6
 </t>
         </is>
       </c>
       <c r="AA8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 177
-G 42
-B 76
+          <t xml:space="preserve">R 170
+G 35
+B 67
 </t>
         </is>
       </c>
       <c r="AB8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 27
-G 142
-B 93
+          <t xml:space="preserve">R 21
+G 133
+B 83
 </t>
         </is>
       </c>
@@ -1453,25 +1453,25 @@
       </c>
       <c r="Z9" s="5" t="inlineStr">
         <is>
+          <t xml:space="preserve">R 174
+G 42
+B 69
+</t>
+        </is>
+      </c>
+      <c r="AA9" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 189
+G 180
+B 7
+</t>
+        </is>
+      </c>
+      <c r="AB9" s="5" t="inlineStr">
+        <is>
           <t xml:space="preserve">R 180
-G 50
-B 78
-</t>
-        </is>
-      </c>
-      <c r="AA9" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 195
-G 186
-B 10
-</t>
-        </is>
-      </c>
-      <c r="AB9" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 186
-G 123
-B 8
+G 114
+B 6
 </t>
         </is>
       </c>
@@ -1497,25 +1497,25 @@
       </c>
       <c r="Z10" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 218
-G 220
-B 231
+          <t xml:space="preserve">R 215
+G 217
+B 228
 </t>
         </is>
       </c>
       <c r="AA10" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 197
-G 95
-B 108
+          <t xml:space="preserve">R 192
+G 86
+B 99
 </t>
         </is>
       </c>
       <c r="AB10" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 59
-G 125
-B 187
+          <t xml:space="preserve">R 50
+G 116
+B 181
 </t>
         </is>
       </c>
@@ -1541,25 +1541,25 @@
       </c>
       <c r="Z11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 218
-G 207
-B 77
+          <t xml:space="preserve">R 214
+G 202
+B 68
 </t>
         </is>
       </c>
       <c r="AA11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 207
-G 196
-B 41
+          <t xml:space="preserve">R 202
+G 191
+B 33
 </t>
         </is>
       </c>
       <c r="AB11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 8
-G 105
-B 167
+          <t xml:space="preserve">R 6
+G 95
+B 160
 </t>
         </is>
       </c>
@@ -1585,25 +1585,25 @@
       </c>
       <c r="Z12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 19
-G 154
-B 96
+          <t xml:space="preserve">R 14
+G 146
+B 87
 </t>
         </is>
       </c>
       <c r="AA12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 5
-G 103
-B 166
+          <t xml:space="preserve">R 4
+G 94
+B 158
 </t>
         </is>
       </c>
       <c r="AB12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 190
-G 195
-B 207
+          <t xml:space="preserve">R 184
+G 189
+B 203
 </t>
         </is>
       </c>
@@ -1647,13 +1647,6 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>orange: 9</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>gamma: 2.0999999999999996</t>
         </is>
       </c>
     </row>
